--- a/data/trans_dic/P22_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22_R3-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.01281251861283505</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0119383206507455</v>
+        <v>0.01193832065074549</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04060236113062427</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02417134644758471</v>
+        <v>0.02275830700013172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02223421437582074</v>
+        <v>0.02300552301650676</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01866856338377439</v>
+        <v>0.01825686997132356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01491068710774985</v>
+        <v>0.01431429773680372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03174379031433935</v>
+        <v>0.03192231187781455</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004411928649213599</v>
+        <v>0.004425581321898359</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005749556084779193</v>
+        <v>0.005766770959629845</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007256132846758731</v>
+        <v>0.007278106819616452</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03016005544956672</v>
+        <v>0.03056289903276949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01576543872882888</v>
+        <v>0.01558580091974249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01392803257396426</v>
+        <v>0.01430418348356758</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01300326739313694</v>
+        <v>0.01260686404787946</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05260708020096869</v>
+        <v>0.05090902889168483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05602936003145079</v>
+        <v>0.05456181947087262</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04760417764888072</v>
+        <v>0.04698857521499838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03988999252395607</v>
+        <v>0.04014336151897547</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06198688633564558</v>
+        <v>0.06567302677931902</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02301122369760257</v>
+        <v>0.02195427685743685</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02427201428256065</v>
+        <v>0.02579544770973591</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01821275217371218</v>
+        <v>0.0193050006719521</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05209168886426219</v>
+        <v>0.05219560436288748</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03391418706818767</v>
+        <v>0.03419625256373247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03049704089765062</v>
+        <v>0.03069897035678228</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02638008194338486</v>
+        <v>0.02496269579519967</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02061013906984929</v>
+        <v>0.02013127878684486</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03303831855010007</v>
+        <v>0.03237724155039919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0388947590542882</v>
+        <v>0.04055019303873394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02178954289472868</v>
+        <v>0.02201048287804023</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02851433951832454</v>
+        <v>0.02857406704501213</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01427353886286066</v>
+        <v>0.01452510095873919</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01607917572701986</v>
+        <v>0.01592646525195573</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02093016988729662</v>
+        <v>0.0203975455379173</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02723923888342502</v>
+        <v>0.02722928546907175</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02573280694134902</v>
+        <v>0.02605758211932849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03004350532141601</v>
+        <v>0.03090137644459891</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02397183593443779</v>
+        <v>0.02377677491769452</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04379382177756892</v>
+        <v>0.04448748004632153</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06265675562237713</v>
+        <v>0.06270970779892233</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07007440012364492</v>
+        <v>0.07015760821042998</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04917662357994398</v>
+        <v>0.04899514892549671</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05450508311544169</v>
+        <v>0.05562112701705459</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03561315563205016</v>
+        <v>0.03442556480941811</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03554219869842139</v>
+        <v>0.03360468732576732</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03860471537855299</v>
+        <v>0.03727826302580543</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04492930962177134</v>
+        <v>0.04479791474160836</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04460595548930946</v>
+        <v>0.04515345620093129</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04789009681991062</v>
+        <v>0.04858627844982693</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03913056886041118</v>
+        <v>0.03973502451746988</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02230052696984135</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03872681321707104</v>
+        <v>0.03872681321707103</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04748521557955646</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02684169616980832</v>
+        <v>0.02617491090504387</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03568723754847251</v>
+        <v>0.0369483910866864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0137409701583066</v>
+        <v>0.01271644591304518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02354892191440144</v>
+        <v>0.02426143613831155</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03399179241619388</v>
+        <v>0.03354594892806873</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03969014963470772</v>
+        <v>0.0390360971490787</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02770266503619217</v>
+        <v>0.02625049552190524</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01833980544080174</v>
+        <v>0.01801550320680576</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03360060446581346</v>
+        <v>0.03391086566876216</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04306311627836608</v>
+        <v>0.04210706215354754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02251430659415776</v>
+        <v>0.02255088452030277</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02318876898889856</v>
+        <v>0.02366762774381182</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05655124620733716</v>
+        <v>0.05719284401765877</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07191370263333134</v>
+        <v>0.07630934326282986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03576292694734615</v>
+        <v>0.03496574608725174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05879265779253871</v>
+        <v>0.05986993174475801</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06605747961082116</v>
+        <v>0.06456862107456639</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07981037899640062</v>
+        <v>0.07784455461138584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05593398735176647</v>
+        <v>0.05599034225580989</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03694721516397082</v>
+        <v>0.03860038830195314</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05723837770390208</v>
+        <v>0.05737599134494751</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07035390747572366</v>
+        <v>0.06827770005461474</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04170031506506166</v>
+        <v>0.04106477016731262</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04429386874422871</v>
+        <v>0.04457838737612364</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03889696625304509</v>
+        <v>0.03990622111330486</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03477570851416268</v>
+        <v>0.03496980524826585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05423706913925495</v>
+        <v>0.05428853947900046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03398777129629785</v>
+        <v>0.035440754471465</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03031263956793833</v>
+        <v>0.03009633225260909</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03268144379722001</v>
+        <v>0.03310249286158656</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04195005755459202</v>
+        <v>0.04113089797861528</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03007473479271219</v>
+        <v>0.02994781573340315</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03909063363947678</v>
+        <v>0.03827798623275903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03681754298784338</v>
+        <v>0.03667354455512312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05118667851862661</v>
+        <v>0.05051478860811982</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03491392252987102</v>
+        <v>0.03550038001251556</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06731782410843457</v>
+        <v>0.06855595225360406</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06528437493462549</v>
+        <v>0.06437278092698234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0877713843941247</v>
+        <v>0.08835525918129536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06191702745035049</v>
+        <v>0.06221866152772886</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05581843599884966</v>
+        <v>0.0564067756537532</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06006580195807174</v>
+        <v>0.06049641789159649</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07013687346270782</v>
+        <v>0.07051201632000605</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05007138036770876</v>
+        <v>0.0507590372918495</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05713327883553887</v>
+        <v>0.05753705996931967</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05793906455686074</v>
+        <v>0.05811435100105673</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07363227996108916</v>
+        <v>0.0728452331296509</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05138751824897186</v>
+        <v>0.05178545769747189</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16723</v>
+        <v>15745</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15641</v>
+        <v>16184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12576</v>
+        <v>12298</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10299</v>
+        <v>9887</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21824</v>
+        <v>21947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3075</v>
+        <v>3085</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5327</v>
+        <v>5343</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>41602</v>
+        <v>42157</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22080</v>
+        <v>21828</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18754</v>
+        <v>19260</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>18528</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36397</v>
+        <v>35222</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39415</v>
+        <v>38383</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32068</v>
+        <v>31653</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27552</v>
+        <v>27727</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42616</v>
+        <v>45150</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16040</v>
+        <v>15303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16331</v>
+        <v>17356</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13371</v>
+        <v>14173</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>71853</v>
+        <v>71997</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>47497</v>
+        <v>47893</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>41063</v>
+        <v>41335</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37589</v>
+        <v>35569</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19802</v>
+        <v>19342</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>33599</v>
+        <v>32927</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39731</v>
+        <v>41422</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22855</v>
+        <v>23087</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27613</v>
+        <v>27671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14733</v>
+        <v>14993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16739</v>
+        <v>16580</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22426</v>
+        <v>21855</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>52550</v>
+        <v>52530</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>52730</v>
+        <v>53396</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>61965</v>
+        <v>63734</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>50830</v>
+        <v>50416</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42077</v>
+        <v>42743</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63720</v>
+        <v>63774</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>71581</v>
+        <v>71666</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>51582</v>
+        <v>51392</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52782</v>
+        <v>53863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36759</v>
+        <v>35534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37000</v>
+        <v>34983</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41364</v>
+        <v>39943</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>86677</v>
+        <v>86424</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>91404</v>
+        <v>92526</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>98773</v>
+        <v>100209</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>82972</v>
+        <v>84254</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18187</v>
+        <v>17736</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27037</v>
+        <v>27993</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10412</v>
+        <v>9635</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18912</v>
+        <v>19484</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23245</v>
+        <v>22940</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30846</v>
+        <v>30338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21639</v>
+        <v>20505</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14897</v>
+        <v>14633</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45745</v>
+        <v>46167</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66093</v>
+        <v>64626</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>34645</v>
+        <v>34702</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>37458</v>
+        <v>38231</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38318</v>
+        <v>38753</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54483</v>
+        <v>57814</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27098</v>
+        <v>26494</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47215</v>
+        <v>48080</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45173</v>
+        <v>44155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>62027</v>
+        <v>60499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43691</v>
+        <v>43735</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30011</v>
+        <v>31354</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>77926</v>
+        <v>78113</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>107979</v>
+        <v>104792</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>64169</v>
+        <v>63191</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71549</v>
+        <v>72009</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36559</v>
+        <v>37508</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32958</v>
+        <v>33142</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50799</v>
+        <v>50847</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33650</v>
+        <v>35089</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31447</v>
+        <v>31223</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34378</v>
+        <v>34821</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43787</v>
+        <v>42932</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>33601</v>
+        <v>33459</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>77295</v>
+        <v>75688</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>73622</v>
+        <v>73334</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>101369</v>
+        <v>100039</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>73575</v>
+        <v>74810</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63272</v>
+        <v>64436</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61873</v>
+        <v>61009</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82207</v>
+        <v>82754</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61302</v>
+        <v>61600</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57908</v>
+        <v>58518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>63183</v>
+        <v>63636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>73207</v>
+        <v>73599</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>55942</v>
+        <v>56711</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>112971</v>
+        <v>113770</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>115857</v>
+        <v>116208</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>145820</v>
+        <v>144261</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>108290</v>
+        <v>109128</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
     </row>
     <row r="24">
